--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
@@ -9015,17 +9015,17 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>7905040001</t>
+          <t>7905120009</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO ITALIANO</t>
+          <t>TOMATE ROSA</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -9050,13 +9050,13 @@
         <v>82</v>
       </c>
       <c r="I94" s="4" t="n">
-        <v>200.22</v>
+        <v>204.18</v>
       </c>
       <c r="J94" s="4" t="n">
-        <v>102.48</v>
+        <v>106.08</v>
       </c>
       <c r="K94" s="4" t="n">
-        <v>62.6</v>
+        <v>68.33</v>
       </c>
       <c r="L94" s="4" t="n">
         <v>0</v>
@@ -9068,16 +9068,16 @@
         <v>20.1</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>313.33</v>
+        <v>213.33</v>
       </c>
       <c r="S94" s="5" t="n">
         <v>30</v>
@@ -9089,34 +9089,34 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 3 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7905120009</t>
+          <t>7905040001</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>TOMATE ROSA</t>
+          <t>PIMIENTO ITALIANO</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -9141,13 +9141,13 @@
         <v>82</v>
       </c>
       <c r="I95" s="4" t="n">
-        <v>204.18</v>
+        <v>200.22</v>
       </c>
       <c r="J95" s="4" t="n">
-        <v>106.08</v>
+        <v>102.48</v>
       </c>
       <c r="K95" s="4" t="n">
-        <v>68.33</v>
+        <v>62.6</v>
       </c>
       <c r="L95" s="4" t="n">
         <v>0</v>
@@ -9159,16 +9159,16 @@
         <v>20.1</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>213.33</v>
+        <v>313.33</v>
       </c>
       <c r="S95" s="5" t="n">
         <v>30</v>
@@ -9180,17 +9180,17 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 3 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 14/04/2025</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15112,17 +15112,17 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C17A25</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -15132,40 +15132,40 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F161" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G161" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H161" s="4" t="n">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I161" s="4" t="n">
-        <v>125.81</v>
+        <v>125.82</v>
       </c>
       <c r="J161" s="4" t="n">
         <v>64.65000000000001</v>
       </c>
       <c r="K161" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L161" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M161" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="N161" s="5" t="n">
-        <v>22.7</v>
+        <v>4.4</v>
       </c>
       <c r="O161" s="4" t="n">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="P161" s="4" t="n">
         <v>61</v>
@@ -15181,12 +15181,12 @@
       </c>
       <c r="T161" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U161" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -93 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V161" s="4" t="inlineStr">
@@ -15196,24 +15196,24 @@
       </c>
       <c r="W161" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>C17A25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -15223,40 +15223,40 @@
       </c>
       <c r="E162" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F162" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G162" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H162" s="4" t="n">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I162" s="4" t="n">
-        <v>125.82</v>
+        <v>125.81</v>
       </c>
       <c r="J162" s="4" t="n">
         <v>64.65000000000001</v>
       </c>
       <c r="K162" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L162" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M162" s="5" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="N162" s="5" t="n">
-        <v>4.4</v>
+        <v>22.7</v>
       </c>
       <c r="O162" s="4" t="n">
-        <v>0</v>
+        <v>-93</v>
       </c>
       <c r="P162" s="4" t="n">
         <v>61</v>
@@ -15272,12 +15272,12 @@
       </c>
       <c r="T162" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U162" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -93 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V162" s="4" t="inlineStr">
@@ -15287,7 +15287,7 @@
       </c>
       <c r="W162" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -21736,17 +21736,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>7202280001</t>
+          <t>7905040005</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>LANTANA MONTEVIDENSIS</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>2I5LA35</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -21756,88 +21756,88 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>80.7</v>
+        <v>80.88</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>43</v>
+        <v>43.17</v>
       </c>
       <c r="K65" s="4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N65" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P65" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="Q65" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="R65" s="4" t="n">
-        <v>0</v>
+        <v>213.33</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T65" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7905040005</t>
+          <t>7202280001</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>LANTANA MONTEVIDENSIS</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2I5LA35</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -21847,71 +21847,71 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>80.88</v>
+        <v>80.7</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>43.17</v>
+        <v>43</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>213.33</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T66" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T66" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -22555,17 +22555,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7401070000</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>AQUILEGIA CAERULEA</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -22575,88 +22575,88 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H74" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>69.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>34.51</v>
+        <v>39.69</v>
       </c>
       <c r="K74" s="4" t="n">
-        <v>100</v>
+        <v>62.5</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N74" s="5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P74" s="4" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q74" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R74" s="4" t="n">
-        <v>0</v>
+        <v>613.33</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T74" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W74" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>7401070000</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>AQUILEGIA CAERULEA</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -22666,71 +22666,71 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>74.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>39.69</v>
+        <v>34.51</v>
       </c>
       <c r="K75" s="4" t="n">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N75" s="5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P75" s="4" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>613.33</v>
+        <v>0</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T75" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T75" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -28015,17 +28015,17 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>7201040000</t>
+          <t>7905120020</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>SUTERA HYBRIDA</t>
+          <t>TOMATE CHERRY ESPALDERA</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -28035,88 +28035,88 @@
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G134" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H134" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I134" s="4" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="J134" s="4" t="n">
-        <v>19.49</v>
+        <v>19.67</v>
       </c>
       <c r="K134" s="4" t="n">
-        <v>93.33</v>
+        <v>100</v>
       </c>
       <c r="L134" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134" s="5" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="N134" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="O134" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P134" s="4" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="Q134" s="4" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R134" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S134" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T134" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T134" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U134" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V134" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W134" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>7905120020</t>
+          <t>7201040000</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY ESPALDERA</t>
+          <t>SUTERA HYBRIDA</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -28126,71 +28126,71 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G135" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H135" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I135" s="4" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="J135" s="4" t="n">
-        <v>19.67</v>
+        <v>19.49</v>
       </c>
       <c r="K135" s="4" t="n">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="L135" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" s="5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="N135" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="Q135" s="4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R135" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S135" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T135" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T135" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V135" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W135" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -29088,17 +29088,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7905120007</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>TOMATE NEGRO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -29108,49 +29108,49 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>44.95</v>
+        <v>51.73</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>23.36</v>
+        <v>29.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>50</v>
+        <v>87.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>613.33</v>
+        <v>400</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>30</v>
@@ -29162,34 +29162,34 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7905120007</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>TOMATE NEGRO</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -29199,49 +29199,49 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>51.73</v>
+        <v>44.95</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>29.53</v>
+        <v>23.36</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>87.5</v>
+        <v>50</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>400</v>
+        <v>613.33</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>30</v>
@@ -29253,17 +29253,17 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -34730,17 +34730,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7905130024</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>TATSOI BRASSICA RAPA VAR NARINOSA</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -34750,88 +34750,88 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>26.91</v>
+        <v>27.9</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>14.74</v>
+        <v>15.64</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="O66" s="4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P66" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="P66" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="Q66" s="4" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>413.33</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T66" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T66" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7905130024</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>TATSOI BRASSICA RAPA VAR NARINOSA</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -34841,71 +34841,71 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>27.9</v>
+        <v>26.91</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>15.64</v>
+        <v>14.74</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N67" s="5" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>0</v>
+        <v>413.33</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T67" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -35367,17 +35367,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7202520010</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>SCHIZANTHUS X WISETONENSIS</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M14A30</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -35387,12 +35387,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -35402,16 +35402,16 @@
         <v>4</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>19.96</v>
+        <v>23.96</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>9.07</v>
+        <v>12.7</v>
       </c>
       <c r="K73" s="4" t="n">
-        <v>57.14</v>
+        <v>80</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0.3</v>
@@ -35420,10 +35420,10 @@
         <v>1</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73" s="4" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q73" s="4" t="n">
         <v>92</v>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
@@ -35451,24 +35451,24 @@
       </c>
       <c r="W73" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>7202520010</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>SCHIZANTHUS X WISETONENSIS</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>M14A30</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -35478,12 +35478,12 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -35493,16 +35493,16 @@
         <v>4</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>23.96</v>
+        <v>19.96</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>12.7</v>
+        <v>9.07</v>
       </c>
       <c r="K74" s="4" t="n">
-        <v>80</v>
+        <v>57.14</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0.3</v>
@@ -35511,10 +35511,10 @@
         <v>1</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74" s="4" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q74" s="4" t="n">
         <v>92</v>
@@ -35532,7 +35532,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -35542,7 +35542,7 @@
       </c>
       <c r="W74" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -37278,12 +37278,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>7203500001</t>
+          <t>7201400001</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>VERBENA HYBRIDA</t>
+          <t>PORTULACA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -37319,7 +37319,7 @@
         <v>8.99</v>
       </c>
       <c r="K94" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L94" s="4" t="n">
         <v>0</v>
@@ -37331,38 +37331,38 @@
         <v>0.7</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T94" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>20</v>
+      </c>
+      <c r="T94" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -37460,12 +37460,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7201400001</t>
+          <t>7203500001</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA GRANDIFLORA</t>
+          <t>VERBENA HYBRIDA</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -37501,7 +37501,7 @@
         <v>8.99</v>
       </c>
       <c r="K96" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L96" s="4" t="n">
         <v>0</v>
@@ -37513,38 +37513,38 @@
         <v>0.7</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="Q96" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R96" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T96" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T96" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W96" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
@@ -40645,17 +40645,17 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>7905130006</t>
+          <t>7205030002</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO</t>
+          <t>CYCLAMEN MINI</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -40665,25 +40665,25 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G131" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H131" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I131" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J131" s="4" t="n">
-        <v>5.21</v>
+        <v>4.31</v>
       </c>
       <c r="K131" s="4" t="n">
         <v>0</v>
@@ -40692,16 +40692,16 @@
         <v>0</v>
       </c>
       <c r="M131" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N131" s="5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O131" s="4" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="P131" s="4" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q131" s="4" t="n">
         <v>0</v>
@@ -40719,7 +40719,7 @@
       </c>
       <c r="U131" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V131" s="4" t="inlineStr">
@@ -40827,17 +40827,17 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>7205030002</t>
+          <t>7905130006</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN MINI</t>
+          <t>COLIFLOR ROMANESCO</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -40847,25 +40847,25 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F133" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G133" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H133" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I133" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J133" s="4" t="n">
-        <v>4.31</v>
+        <v>5.21</v>
       </c>
       <c r="K133" s="4" t="n">
         <v>0</v>
@@ -40874,16 +40874,16 @@
         <v>0</v>
       </c>
       <c r="M133" s="5" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N133" s="5" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O133" s="4" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q133" s="4" t="n">
         <v>0</v>
@@ -40901,7 +40901,7 @@
       </c>
       <c r="U133" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V133" s="4" t="inlineStr">
@@ -42912,42 +42912,42 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>7905100001</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>ACELGA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E156" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F156" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G156" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H156" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" s="4" t="n">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="J156" s="4" t="n">
         <v>2.56</v>
@@ -42959,16 +42959,16 @@
         <v>0</v>
       </c>
       <c r="M156" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N156" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="N156" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O156" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P156" s="4" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q156" s="4" t="n">
         <v>0</v>
@@ -42986,7 +42986,7 @@
       </c>
       <c r="U156" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V156" s="4" t="inlineStr">
@@ -43003,42 +43003,42 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7905100001</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>ACELGA</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F157" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G157" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H157" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" s="4" t="n">
-        <v>4.99</v>
+        <v>4.98</v>
       </c>
       <c r="J157" s="4" t="n">
         <v>2.56</v>
@@ -43050,16 +43050,16 @@
         <v>0</v>
       </c>
       <c r="M157" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N157" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O157" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P157" s="4" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Q157" s="4" t="n">
         <v>0</v>
@@ -43077,7 +43077,7 @@
       </c>
       <c r="U157" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V157" s="4" t="inlineStr">
@@ -44341,17 +44341,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7803030001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>OCIMUM BASILICUM "MINIMUM"</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>C16A15</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44432,17 +44432,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7804250002</t>
+          <t>7203230001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
+          <t>GERBERA HYBRIDS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>2LA35</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44452,12 +44452,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -44476,7 +44476,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -44485,19 +44485,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>186.67</v>
+        <v>73.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -44506,12 +44506,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -44523,17 +44523,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7206040001</t>
+          <t>7401050001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>MATTHIOLA INCANA DOBLE (ALHELÍ)</t>
+          <t>LOBULARIA MARITIMA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44543,12 +44543,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44567,7 +44567,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -44576,19 +44576,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -44597,12 +44597,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -44705,17 +44705,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44749,7 +44749,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44758,19 +44758,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -44779,12 +44779,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -44796,17 +44796,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7206040001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
+          <t>MATTHIOLA INCANA DOBLE (ALHELÍ)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -44816,12 +44816,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -44840,7 +44840,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -44849,19 +44849,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>73.33</v>
+        <v>613.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -44870,12 +44870,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -44887,17 +44887,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7401740046</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -44907,12 +44907,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -44946,13 +44946,13 @@
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>6.67</v>
+        <v>166.67</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -44961,12 +44961,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -44978,17 +44978,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7804250002</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -44998,12 +44998,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -45022,7 +45022,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -45031,16 +45031,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>613.33</v>
+        <v>186.67</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -45052,12 +45052,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -45069,17 +45069,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7203230001</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>GERBERA HYBRIDS</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>2LA35</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45089,12 +45089,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -45113,7 +45113,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -45122,19 +45122,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>73.33</v>
+        <v>613.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -45143,12 +45143,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -45160,17 +45160,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7401290001</t>
+          <t>7805110002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ERYSIMUM HYBRIDUM</t>
+          <t>SALVIA LEUCANTHA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45180,12 +45180,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -45204,7 +45204,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45213,19 +45213,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>73.33</v>
+        <v>613.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -45234,12 +45234,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -45251,17 +45251,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7803030001</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>OCIMUM BASILICUM "MINIMUM"</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>C16A15</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45342,17 +45342,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7401050001</t>
+          <t>7504010002</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>LOBULARIA MARITIMA</t>
+          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>C17A35</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45362,12 +45362,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -45386,7 +45386,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -45395,7 +45395,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
@@ -45433,17 +45433,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7805020002</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45477,7 +45477,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -45486,19 +45486,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>586.67</v>
+        <v>6.67</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -45507,12 +45507,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -45524,17 +45524,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7805020002</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -45577,16 +45577,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>613.33</v>
+        <v>586.67</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>30</v>
@@ -45598,12 +45598,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45615,17 +45615,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7203500003</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>VERBENA BONARIENSIS</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -45635,12 +45635,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -45659,7 +45659,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -45668,19 +45668,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>253.33</v>
+        <v>26.67</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -45689,12 +45689,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -45706,17 +45706,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>T23A15</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45726,12 +45726,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -45750,7 +45750,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -45759,7 +45759,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -45797,17 +45797,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -45841,7 +45841,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -45850,19 +45850,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>613.33</v>
+        <v>73.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -45871,12 +45871,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -45888,17 +45888,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7504010002</t>
+          <t>7203500003</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
+          <t>VERBENA BONARIENSIS</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>C17A35</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -45908,12 +45908,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -45932,7 +45932,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -45941,19 +45941,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>26.67</v>
+        <v>253.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -45962,12 +45962,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -45979,17 +45979,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7202520006</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>TROPAEOLUM MAJUS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -46023,7 +46023,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -46032,19 +46032,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>613.33</v>
+        <v>6.67</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -46053,12 +46053,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -46070,17 +46070,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7202520006</t>
+          <t>7401290001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>TROPAEOLUM MAJUS</t>
+          <t>ERYSIMUM HYBRIDUM</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46090,12 +46090,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -46114,7 +46114,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -46123,19 +46123,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>6.67</v>
+        <v>73.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -46144,12 +46144,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -46161,17 +46161,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7805110002</t>
+          <t>7503010005</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>SALVIA LEUCANTHA</t>
+          <t>DENDRANTHEMA X GRANDIFLORUM</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46181,12 +46181,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46205,7 +46205,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -46214,19 +46214,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
@@ -46235,12 +46235,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -46252,17 +46252,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7401740046</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>T23A15</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46272,12 +46272,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -46296,7 +46296,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46305,16 +46305,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>166.67</v>
+        <v>613.33</v>
       </c>
       <c r="S23" s="5" t="n">
         <v>30</v>
@@ -46326,12 +46326,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -46343,17 +46343,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46363,12 +46363,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -46387,7 +46387,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -46396,7 +46396,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
@@ -46417,7 +46417,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -46434,17 +46434,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7503010005</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DENDRANTHEMA X GRANDIFLORUM</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46454,12 +46454,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -46478,7 +46478,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46487,19 +46487,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -46508,12 +46508,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
